--- a/Day23(2).xlsx
+++ b/Day23(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\StockNotes\notes\鐵人賽\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD832751-D0D4-4E9D-9887-8753E41A13B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186BA09E-94A8-4691-8D4E-34BEF31F4FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="2340" windowWidth="14400" windowHeight="7360" xr2:uid="{F7E20247-F121-43C0-A443-C5145022D1DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F7E20247-F121-43C0-A443-C5145022D1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="鴻海(2317)" sheetId="1" r:id="rId1"/>
@@ -441,9 +441,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55A139-78C8-4005-A900-F9F912E11FA7}">
   <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
